--- a/summary/18dec2017a_2.xlsx
+++ b/summary/18dec2017a_2.xlsx
@@ -13,27 +13,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>path_name</t>
   </si>
   <si>
-    <t>C:\Users\ugu222\OneDrive - University of Kentucky\Documents\GitHub\project_ting_fitting\slc_files</t>
+    <t>C:\Users\ugu222\OneDrive - University of Kentucky\Documents\GitHub\project_ting_fitting\slc_files\pCa_6pt4</t>
   </si>
   <si>
     <t>file_name</t>
   </si>
   <si>
-    <t>freeform2</t>
-  </si>
-  <si>
-    <t>freeform3</t>
-  </si>
-  <si>
-    <t>freeform4</t>
-  </si>
-  <si>
-    <t>freeform5</t>
+    <t>freeform80</t>
+  </si>
+  <si>
+    <t>freeform81</t>
+  </si>
+  <si>
+    <t>freeform82</t>
+  </si>
+  <si>
+    <t>freeform83</t>
+  </si>
+  <si>
+    <t>freeform84</t>
   </si>
   <si>
     <t>file_index</t>
@@ -94,16 +97,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="90.28515625" customWidth="true"/>
-    <col min="2" max="2" width="10.140625" customWidth="true"/>
-    <col min="3" max="3" width="10.140625" customWidth="true"/>
-    <col min="4" max="4" width="4.42578125" customWidth="true"/>
+    <col min="1" max="1" width="91.26953125" customWidth="true"/>
+    <col min="2" max="2" width="10.48828125" customWidth="true"/>
+    <col min="3" max="3" width="9.046875" customWidth="true"/>
+    <col min="4" max="4" width="4.26953125" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="9.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.42578125" customWidth="true"/>
+    <col min="7" max="7" width="9.82421875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -114,19 +117,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -137,13 +140,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="0">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="D2" s="0">
-        <v>9</v>
+        <v>6.4000000000000004</v>
       </c>
       <c r="E2" s="0">
-        <v>1713.493402061853</v>
+        <v>10694.058515463927</v>
       </c>
       <c r="F2" s="0">
         <v>0.00057160000000000002</v>
@@ -160,13 +163,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="0">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="D3" s="0">
-        <v>9</v>
+        <v>6.4000000000000004</v>
       </c>
       <c r="E3" s="0">
-        <v>1431.6438350515382</v>
+        <v>11126.425154639175</v>
       </c>
       <c r="F3" s="0">
         <v>0.00057160000000000002</v>
@@ -183,13 +186,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="0">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="D4" s="0">
-        <v>9</v>
+        <v>6.4000000000000004</v>
       </c>
       <c r="E4" s="0">
-        <v>1694.2668453608203</v>
+        <v>11241.721525773217</v>
       </c>
       <c r="F4" s="0">
         <v>0.00057160000000000002</v>
@@ -206,18 +209,41 @@
         <v>6</v>
       </c>
       <c r="C5" s="0">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="D5" s="0">
-        <v>9</v>
+        <v>6.4000000000000004</v>
       </c>
       <c r="E5" s="0">
-        <v>1505.2966597938212</v>
+        <v>11664.516865979371</v>
       </c>
       <c r="F5" s="0">
         <v>0.00057160000000000002</v>
       </c>
       <c r="G5" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0">
+        <v>84</v>
+      </c>
+      <c r="D6" s="0">
+        <v>6.4000000000000004</v>
+      </c>
+      <c r="E6" s="0">
+        <v>12007.194556701041</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.00057160000000000002</v>
+      </c>
+      <c r="G6" s="0">
         <v>10</v>
       </c>
     </row>

--- a/summary/18dec2017a_2.xlsx
+++ b/summary/18dec2017a_2.xlsx
@@ -18,7 +18,7 @@
     <t>path_name</t>
   </si>
   <si>
-    <t>C:\Users\ugu222\OneDrive - University of Kentucky\Documents\GitHub\project_ting_fitting\slc_files\pCa_6pt4</t>
+    <t>C:\utku\GitHub\project_ting_fitting\slc_files\pCa_6pt4</t>
   </si>
   <si>
     <t>file_name</t>
@@ -100,13 +100,13 @@
   <dimension ref="A1:G6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="91.26953125" customWidth="true"/>
-    <col min="2" max="2" width="10.48828125" customWidth="true"/>
-    <col min="3" max="3" width="9.046875" customWidth="true"/>
-    <col min="4" max="4" width="4.26953125" customWidth="true"/>
+    <col min="1" max="1" width="49.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.140625" customWidth="true"/>
+    <col min="3" max="3" width="10.140625" customWidth="true"/>
+    <col min="4" max="4" width="4.42578125" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="9.7109375" customWidth="true"/>
-    <col min="7" max="7" width="9.82421875" customWidth="true"/>
+    <col min="7" max="7" width="10.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
